--- a/experiments/method_1/sub-operations.xlsx
+++ b/experiments/method_1/sub-operations.xlsx
@@ -5,19 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="963" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Full Runs" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Linear Scans" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Sort Test" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Sort Test (i2)" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="85">
   <si>
     <t>Simple Model</t>
   </si>
@@ -64,6 +65,9 @@
     <t>*repeated 5 times with same result</t>
   </si>
   <si>
+    <t>*buffer cache empty</t>
+  </si>
+  <si>
     <t>- branch</t>
   </si>
   <si>
@@ -245,6 +249,30 @@
   </si>
   <si>
     <t>*using buffer_read to avoid copy of read data to string for each record</t>
+  </si>
+  <si>
+    <t>AWS i2.xlarge SSD</t>
+  </si>
+  <si>
+    <t>AWS Docs</t>
+  </si>
+  <si>
+    <t>450MB/s</t>
+  </si>
+  <si>
+    <t>9360MB/s</t>
+  </si>
+  <si>
+    <t>340MB/s</t>
+  </si>
+  <si>
+    <t>4KB</t>
+  </si>
+  <si>
+    <t>* buffer cache full</t>
+  </si>
+  <si>
+    <t>Node Test</t>
   </si>
 </sst>
 </file>
@@ -357,7 +385,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -376,6 +404,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -426,6 +458,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -446,12 +482,18 @@
   <dimension ref="A1:R102"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K27" activeCellId="0" sqref="K27"/>
+      <selection pane="topLeft" activeCell="M44" activeCellId="0" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.0918367346939"/>
+    <col collapsed="false" hidden="false" max="11" min="8" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6989795918367"/>
+    <col collapsed="false" hidden="false" max="16" min="13" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.219387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.8265306122449"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -818,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>9</v>
       </c>
@@ -837,7 +879,7 @@
       <c r="G14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="2" t="n">
         <v>90</v>
       </c>
       <c r="K14" s="0" t="n">
@@ -858,7 +900,7 @@
       <c r="Q14" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="R14" s="2" t="n">
         <v>53</v>
       </c>
     </row>
@@ -1256,7 +1298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
         <v>9</v>
       </c>
@@ -1296,8 +1338,8 @@
       <c r="Q28" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="R28" s="0" t="n">
-        <v>53</v>
+      <c r="R28" s="2" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,7 +1361,7 @@
       <c r="G29" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="6" t="n">
         <f aca="false">SUM(B30:E30)</f>
         <v>103.1</v>
       </c>
@@ -1369,7 +1411,7 @@
       <c r="G30" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="5" t="n">
+      <c r="H30" s="6" t="n">
         <f aca="false">SUM(B30:D30)</f>
         <v>87.1</v>
       </c>
@@ -1403,7 +1445,7 @@
     <row r="31" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>3</v>
       </c>
@@ -1419,8 +1461,26 @@
       <c r="E33" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K33" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
         <v>1</v>
       </c>
@@ -1436,8 +1496,26 @@
       <c r="E34" s="0" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N34" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
         <v>2</v>
       </c>
@@ -1453,8 +1531,26 @@
       <c r="E35" s="0" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N35" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O35" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>3</v>
       </c>
@@ -1470,8 +1566,23 @@
       <c r="E36" s="0" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N36" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O36" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
         <v>4</v>
       </c>
@@ -1487,8 +1598,23 @@
       <c r="E37" s="0" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K37" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N37" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O37" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
         <v>5</v>
       </c>
@@ -1504,8 +1630,23 @@
       <c r="E38" s="0" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K38" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N38" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
         <v>6</v>
       </c>
@@ -1521,8 +1662,23 @@
       <c r="E39" s="0" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
         <v>7</v>
       </c>
@@ -1538,8 +1694,23 @@
       <c r="E40" s="0" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K40" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N40" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O40" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
         <v>8</v>
       </c>
@@ -1555,8 +1726,23 @@
       <c r="E41" s="0" t="n">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K41" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N41" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O41" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
         <v>9</v>
       </c>
@@ -1578,8 +1764,29 @@
       <c r="H42" s="5" t="n">
         <v>90</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N42" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="R42" s="2" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
         <v>10</v>
       </c>
@@ -1598,12 +1805,34 @@
       <c r="G43" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="5" t="n">
+      <c r="H43" s="6" t="n">
         <f aca="false">SUM(B44:E44)</f>
         <v>103.2</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K43" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N43" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="R43" s="0" t="n">
+        <f aca="false">SUM(L44:O44)</f>
+        <v>34.8</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -1626,9 +1855,35 @@
       <c r="G44" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="5" t="n">
+      <c r="H44" s="6" t="n">
         <f aca="false">SUM(B44:D44)</f>
         <v>87.2</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">SUM(L34:L43)</f>
+        <v>27.6</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <f aca="false">SUM(M34:M43)</f>
+        <v>4.2</v>
+      </c>
+      <c r="N44" s="0" t="n">
+        <f aca="false">SUM(N34:N43)</f>
+        <v>3</v>
+      </c>
+      <c r="O44" s="0" t="n">
+        <f aca="false">SUM(O34:O43)</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="R44" s="0" t="n">
+        <f aca="false">SUM(L44:N44)</f>
+        <v>34.8</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1642,13 +1897,13 @@
         <v>1</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>2</v>
@@ -1660,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1670,13 +1925,13 @@
       <c r="B48" s="0" t="n">
         <v>8.1</v>
       </c>
-      <c r="C48" s="6" t="n">
+      <c r="C48" s="7" t="n">
         <v>10485700</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="7" t="n">
         <v>3463518</v>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="7" t="n">
         <v>2414948</v>
       </c>
       <c r="F48" s="0" t="n">
@@ -1696,13 +1951,13 @@
       <c r="B49" s="0" t="n">
         <v>7.6</v>
       </c>
-      <c r="C49" s="6" t="n">
+      <c r="C49" s="7" t="n">
         <v>9437130</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="7" t="n">
         <v>3353016</v>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="7" t="n">
         <v>2304446</v>
       </c>
       <c r="F49" s="0" t="n">
@@ -1722,13 +1977,13 @@
       <c r="B50" s="0" t="n">
         <v>7.8</v>
       </c>
-      <c r="C50" s="6" t="n">
+      <c r="C50" s="7" t="n">
         <v>8388560</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="7" t="n">
         <v>3228313</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="7" t="n">
         <v>2179743</v>
       </c>
       <c r="F50" s="0" t="n">
@@ -1748,13 +2003,13 @@
       <c r="B51" s="0" t="n">
         <v>7.2</v>
       </c>
-      <c r="C51" s="6" t="n">
+      <c r="C51" s="7" t="n">
         <v>7339990</v>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" s="7" t="n">
         <v>3088609</v>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="7" t="n">
         <v>2040039</v>
       </c>
       <c r="F51" s="0" t="n">
@@ -1774,13 +2029,13 @@
       <c r="B52" s="0" t="n">
         <v>7.3</v>
       </c>
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="7" t="n">
         <v>6291420</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="7" t="n">
         <v>2925519</v>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="7" t="n">
         <v>1876949</v>
       </c>
       <c r="F52" s="0" t="n">
@@ -1800,13 +2055,13 @@
       <c r="B53" s="0" t="n">
         <v>6.7</v>
       </c>
-      <c r="C53" s="6" t="n">
+      <c r="C53" s="7" t="n">
         <v>5242850</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="7" t="n">
         <v>2735156</v>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="7" t="n">
         <v>1686586</v>
       </c>
       <c r="F53" s="0" t="n">
@@ -1826,13 +2081,13 @@
       <c r="B54" s="0" t="n">
         <v>6.6</v>
       </c>
-      <c r="C54" s="6" t="n">
+      <c r="C54" s="7" t="n">
         <v>4194280</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="7" t="n">
         <v>2503215</v>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="7" t="n">
         <v>1454645</v>
       </c>
       <c r="F54" s="0" t="n">
@@ -1852,13 +2107,13 @@
       <c r="B55" s="0" t="n">
         <v>5.8</v>
       </c>
-      <c r="C55" s="6" t="n">
+      <c r="C55" s="7" t="n">
         <v>3145710</v>
       </c>
-      <c r="D55" s="6" t="n">
+      <c r="D55" s="7" t="n">
         <v>2199890</v>
       </c>
-      <c r="E55" s="6" t="n">
+      <c r="E55" s="7" t="n">
         <v>1151320</v>
       </c>
       <c r="F55" s="0" t="n">
@@ -1871,20 +2126,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
         <v>9</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>5.5</v>
       </c>
-      <c r="C56" s="6" t="n">
+      <c r="C56" s="7" t="n">
         <v>2097140</v>
       </c>
-      <c r="D56" s="6" t="n">
+      <c r="D56" s="7" t="n">
         <v>1775721</v>
       </c>
-      <c r="E56" s="6" t="n">
+      <c r="E56" s="7" t="n">
         <v>727151</v>
       </c>
       <c r="F56" s="0" t="n">
@@ -1910,13 +2165,13 @@
       <c r="B57" s="0" t="n">
         <v>3.9</v>
       </c>
-      <c r="C57" s="6" t="n">
+      <c r="C57" s="7" t="n">
         <v>1048570</v>
       </c>
-      <c r="D57" s="6" t="n">
+      <c r="D57" s="7" t="n">
         <v>1048570</v>
       </c>
-      <c r="E57" s="6" t="n">
+      <c r="E57" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="0" t="n">
@@ -1931,7 +2186,7 @@
       <c r="J57" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="K57" s="5" t="n">
+      <c r="K57" s="6" t="n">
         <f aca="false">B58+F58+G58+H58</f>
         <v>87.4</v>
       </c>
@@ -1944,9 +2199,9 @@
         <f aca="false">SUM(B46:B57)</f>
         <v>66.5</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
       <c r="F58" s="0" t="n">
         <f aca="false">SUM(F46:F57)</f>
         <v>12</v>
@@ -1962,54 +2217,54 @@
       <c r="J58" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="K58" s="5" t="n">
+      <c r="K58" s="6" t="n">
         <f aca="false">B58+F58+G58</f>
         <v>87.4</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>19</v>
+      <c r="A61" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N61" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="n">
+      <c r="A62" s="9" t="n">
         <f aca="false">$A$74+$C$74*C62+D62*$D$74+E62*$E$74</f>
         <v>7.78185223685591</v>
       </c>
@@ -2020,15 +2275,15 @@
         <f aca="false">C48/$C$57</f>
         <v>10</v>
       </c>
-      <c r="D62" s="8" t="n">
+      <c r="D62" s="9" t="n">
         <f aca="false">D48/$C$57</f>
         <v>3.30308706142651</v>
       </c>
-      <c r="E62" s="8" t="n">
+      <c r="E62" s="9" t="n">
         <f aca="false">E48/$C$57</f>
         <v>2.30308706142651</v>
       </c>
-      <c r="F62" s="8" t="n">
+      <c r="F62" s="9" t="n">
         <f aca="false">C62-$C$71+D62-$D$71+E62-$E$71</f>
         <v>13.606174122853</v>
       </c>
@@ -2066,7 +2321,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="8" t="n">
+      <c r="A63" s="9" t="n">
         <f aca="false">$A$74+$C$74*C63+D63*$D$74+E63*$E$74</f>
         <v>7.51862212346338</v>
       </c>
@@ -2078,15 +2333,15 @@
         <f aca="false">C49/$C$57</f>
         <v>9</v>
       </c>
-      <c r="D63" s="8" t="n">
+      <c r="D63" s="9" t="n">
         <f aca="false">D49/$C$57</f>
         <v>3.19770353910564</v>
       </c>
-      <c r="E63" s="8" t="n">
+      <c r="E63" s="9" t="n">
         <f aca="false">E49/$C$57</f>
         <v>2.19770353910564</v>
       </c>
-      <c r="F63" s="8" t="n">
+      <c r="F63" s="9" t="n">
         <f aca="false">C63-$C$71+D63-$D$71+E63-$E$71</f>
         <v>12.3954070782113</v>
       </c>
@@ -2124,7 +2379,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="8" t="n">
+      <c r="A64" s="9" t="n">
         <f aca="false">$A$74+$C$74*C64+D64*$D$74+E64*$E$74</f>
         <v>7.24726608619358</v>
       </c>
@@ -2135,15 +2390,15 @@
         <f aca="false">C50/$C$57</f>
         <v>8</v>
       </c>
-      <c r="D64" s="8" t="n">
+      <c r="D64" s="9" t="n">
         <f aca="false">D50/$C$57</f>
         <v>3.07877681032263</v>
       </c>
-      <c r="E64" s="8" t="n">
+      <c r="E64" s="9" t="n">
         <f aca="false">E50/$C$57</f>
         <v>2.07877681032263</v>
       </c>
-      <c r="F64" s="8" t="n">
+      <c r="F64" s="9" t="n">
         <f aca="false">C64-$C$71+D64-$D$71+E64-$E$71</f>
         <v>11.1575536206453</v>
       </c>
@@ -2181,7 +2436,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8" t="n">
+      <c r="A65" s="9" t="n">
         <f aca="false">$A$74+$C$74*C65+D65*$D$74+E65*$E$74</f>
         <v>6.96732635875526</v>
       </c>
@@ -2193,15 +2448,15 @@
         <f aca="false">C51/$C$57</f>
         <v>7</v>
       </c>
-      <c r="D65" s="8" t="n">
+      <c r="D65" s="9" t="n">
         <f aca="false">D51/$C$57</f>
         <v>2.94554393125876</v>
       </c>
-      <c r="E65" s="8" t="n">
+      <c r="E65" s="9" t="n">
         <f aca="false">E51/$C$57</f>
         <v>1.94554393125876</v>
       </c>
-      <c r="F65" s="8" t="n">
+      <c r="F65" s="9" t="n">
         <f aca="false">C65-$C$71+D65-$D$71+E65-$E$71</f>
         <v>9.89108786251752</v>
       </c>
@@ -2239,7 +2494,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="n">
+      <c r="A66" s="9" t="n">
         <f aca="false">$A$74+$C$74*C66+D66*$D$74+E66*$E$74</f>
         <v>6.67400497820842</v>
       </c>
@@ -2250,15 +2505,15 @@
         <f aca="false">C52/$C$57</f>
         <v>6</v>
       </c>
-      <c r="D66" s="8" t="n">
+      <c r="D66" s="9" t="n">
         <f aca="false">D52/$C$57</f>
         <v>2.79000829701403</v>
       </c>
-      <c r="E66" s="8" t="n">
+      <c r="E66" s="9" t="n">
         <f aca="false">E52/$C$57</f>
         <v>1.79000829701403</v>
       </c>
-      <c r="F66" s="8" t="n">
+      <c r="F66" s="9" t="n">
         <f aca="false">C66-$C$71+D66-$D$71+E66-$E$71</f>
         <v>8.58001659402806</v>
       </c>
@@ -2296,7 +2551,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="n">
+      <c r="A67" s="9" t="n">
         <f aca="false">$A$74+$C$74*C67+D67*$D$74+E67*$E$74</f>
         <v>6.36507777258552</v>
       </c>
@@ -2308,15 +2563,15 @@
         <f aca="false">C53/$C$57</f>
         <v>5</v>
       </c>
-      <c r="D67" s="8" t="n">
+      <c r="D67" s="9" t="n">
         <f aca="false">D53/$C$57</f>
         <v>2.6084629543092</v>
       </c>
-      <c r="E67" s="8" t="n">
+      <c r="E67" s="9" t="n">
         <f aca="false">E53/$C$57</f>
         <v>1.6084629543092</v>
       </c>
-      <c r="F67" s="8" t="n">
+      <c r="F67" s="9" t="n">
         <f aca="false">C67-$C$71+D67-$D$71+E67-$E$71</f>
         <v>7.2169259086184</v>
       </c>
@@ -2354,7 +2609,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="n">
+      <c r="A68" s="9" t="n">
         <f aca="false">$A$74+$C$74*C68+D68*$D$74+E68*$E$74</f>
         <v>6.03235930839143</v>
       </c>
@@ -2365,15 +2620,15 @@
         <f aca="false">C54/$C$57</f>
         <v>4</v>
       </c>
-      <c r="D68" s="8" t="n">
+      <c r="D68" s="9" t="n">
         <f aca="false">D54/$C$57</f>
         <v>2.38726551398571</v>
       </c>
-      <c r="E68" s="8" t="n">
+      <c r="E68" s="9" t="n">
         <f aca="false">E54/$C$57</f>
         <v>1.38726551398571</v>
       </c>
-      <c r="F68" s="8" t="n">
+      <c r="F68" s="9" t="n">
         <f aca="false">C68-$C$71+D68-$D$71+E68-$E$71</f>
         <v>5.77453102797143</v>
       </c>
@@ -2411,7 +2666,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="n">
+      <c r="A69" s="9" t="n">
         <f aca="false">$A$74+$C$74*C69+D69*$D$74+E69*$E$74</f>
         <v>5.65879435803046</v>
       </c>
@@ -2422,15 +2677,15 @@
         <f aca="false">C55/$C$57</f>
         <v>3</v>
       </c>
-      <c r="D69" s="8" t="n">
+      <c r="D69" s="9" t="n">
         <f aca="false">D55/$C$57</f>
         <v>2.09799059671743</v>
       </c>
-      <c r="E69" s="8" t="n">
+      <c r="E69" s="9" t="n">
         <f aca="false">E55/$C$57</f>
         <v>1.09799059671743</v>
       </c>
-      <c r="F69" s="8" t="n">
+      <c r="F69" s="9" t="n">
         <f aca="false">C69-$C$71+D69-$D$71+E69-$E$71</f>
         <v>4.19598119343487</v>
       </c>
@@ -2468,7 +2723,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="n">
+      <c r="A70" s="9" t="n">
         <f aca="false">$A$74+$C$74*C70+D70*$D$74+E70*$E$74</f>
         <v>5.21608152054703</v>
       </c>
@@ -2479,15 +2734,15 @@
         <f aca="false">C56/$C$57</f>
         <v>2</v>
       </c>
-      <c r="D70" s="8" t="n">
+      <c r="D70" s="9" t="n">
         <f aca="false">D56/$C$57</f>
         <v>1.69346920091172</v>
       </c>
-      <c r="E70" s="8" t="n">
+      <c r="E70" s="9" t="n">
         <f aca="false">E56/$C$57</f>
         <v>0.693469200911718</v>
       </c>
-      <c r="F70" s="8" t="n">
+      <c r="F70" s="9" t="n">
         <f aca="false">C70-$C$71+D70-$D$71+E70-$E$71</f>
         <v>2.38693840182344</v>
       </c>
@@ -2513,7 +2768,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="n">
+      <c r="A71" s="9" t="n">
         <f aca="false">$A$74+$C$74*C71+D71*$D$74+E71*$E$74</f>
         <v>4.6</v>
       </c>
@@ -2524,14 +2779,14 @@
         <f aca="false">C57/$C$57</f>
         <v>1</v>
       </c>
-      <c r="D71" s="8" t="n">
+      <c r="D71" s="9" t="n">
         <f aca="false">D57/$C$57</f>
         <v>1</v>
       </c>
-      <c r="E71" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8"/>
+      <c r="E71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" s="9"/>
       <c r="M71" s="0" t="n">
         <f aca="false">B71-C71*0.2</f>
         <v>3.8</v>
@@ -2542,8 +2797,8 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="74" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="n">
@@ -2576,7 +2831,7 @@
         <v>4</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2715,7 +2970,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="n">
         <v>9</v>
       </c>
@@ -2734,7 +2989,7 @@
       <c r="G85" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H85" s="0" t="n">
+      <c r="H85" s="2" t="n">
         <v>106</v>
       </c>
     </row>
@@ -2792,19 +3047,19 @@
     </row>
     <row r="90" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>2</v>
@@ -2819,7 +3074,7 @@
         <v>11</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,10 +3256,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3120,8 +3375,8 @@
   </sheetPr>
   <dimension ref="A1:M65"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I37" activeCellId="0" sqref="I37"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3136,185 +3391,185 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>37</v>
+      <c r="A4" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="C21" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="I21" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="12" t="s">
+      <c r="K21" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="13" t="n">
+      <c r="B22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="14" t="n">
         <v>2843</v>
       </c>
-      <c r="D22" s="13" t="n">
+      <c r="D22" s="14" t="n">
         <v>3906</v>
       </c>
-      <c r="E22" s="13" t="n">
+      <c r="E22" s="14" t="n">
         <v>12719</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>2657</v>
@@ -3407,134 +3662,134 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C27" s="15" t="n">
+      <c r="B27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="16" t="n">
         <f aca="false">AVERAGE(C22:C26)</f>
         <v>3054.6</v>
       </c>
-      <c r="D27" s="15" t="n">
+      <c r="D27" s="16" t="n">
         <f aca="false">AVERAGE(D22:D26)</f>
         <v>3881.6</v>
       </c>
-      <c r="E27" s="15" t="n">
+      <c r="E27" s="16" t="n">
         <f aca="false">AVERAGE(E22:E26)</f>
         <v>11800.2</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" s="15" t="n">
+      <c r="H27" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I27" s="16" t="n">
         <f aca="false">AVERAGE(I22:I26)</f>
         <v>2709.2</v>
       </c>
-      <c r="J27" s="15" t="n">
+      <c r="J27" s="16" t="n">
         <f aca="false">AVERAGE(J22:J26)</f>
         <v>3897.4</v>
       </c>
-      <c r="K27" s="15" t="n">
+      <c r="K27" s="16" t="n">
         <f aca="false">AVERAGE(K22:K26)</f>
         <v>11108.4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="16" t="n">
+      <c r="B28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="17" t="n">
         <f aca="false">STDEV(C22:C26)/C27</f>
         <v>0.0865604173139176</v>
       </c>
-      <c r="D28" s="16" t="n">
+      <c r="D28" s="17" t="n">
         <f aca="false">STDEV(D22:D26)/D27</f>
         <v>0.00443460606425493</v>
       </c>
-      <c r="E28" s="16" t="n">
+      <c r="E28" s="17" t="n">
         <f aca="false">STDEV(E22:E26)/E27</f>
         <v>0.06885032964294</v>
       </c>
-      <c r="H28" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I28" s="16" t="n">
+      <c r="H28" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I28" s="17" t="n">
         <f aca="false">STDEV(I22:I26)/I27</f>
         <v>0.0251530706432853</v>
       </c>
-      <c r="J28" s="16" t="n">
+      <c r="J28" s="17" t="n">
         <f aca="false">STDEV(J22:J26)/J27</f>
         <v>0.00713969482290832</v>
       </c>
-      <c r="K28" s="16" t="n">
+      <c r="K28" s="17" t="n">
         <f aca="false">STDEV(K22:K26)/K27</f>
         <v>0.0752081288786104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="5" t="n">
+      <c r="B29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="6" t="n">
         <f aca="false">1024/C27*1000</f>
         <v>335.232108950435</v>
       </c>
-      <c r="D29" s="5" t="n">
+      <c r="D29" s="6" t="n">
         <f aca="false">1024/D27*1000</f>
         <v>263.808738664468</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="6" t="n">
         <f aca="false">1024/E27*1000</f>
         <v>86.7781902001661</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I29" s="5" t="n">
+      <c r="H29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I29" s="6" t="n">
         <f aca="false">1024/I27*1000</f>
         <v>377.971356858113</v>
       </c>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="6" t="n">
         <f aca="false">1024/J27*1000</f>
         <v>262.739262072151</v>
       </c>
-      <c r="K29" s="5" t="n">
+      <c r="K29" s="6" t="n">
         <f aca="false">1024/K27*1000</f>
         <v>92.1824925281769</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="14" t="n">
+        <v>4018</v>
+      </c>
+      <c r="D31" s="14" t="n">
+        <v>3862</v>
+      </c>
+      <c r="E31" s="14" t="n">
+        <v>12771</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="13" t="n">
-        <v>4018</v>
-      </c>
-      <c r="D31" s="13" t="n">
-        <v>3862</v>
-      </c>
-      <c r="E31" s="13" t="n">
-        <v>12771</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="J31" s="12" t="s">
+      <c r="J31" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="13" t="s">
         <v>4</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3548,10 +3803,10 @@
         <v>12200</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>1949</v>
@@ -3624,18 +3879,18 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="15" t="n">
+      <c r="B36" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="16" t="n">
         <f aca="false">AVERAGE(C31:C35)</f>
         <v>4369.2</v>
       </c>
-      <c r="D36" s="15" t="n">
+      <c r="D36" s="16" t="n">
         <f aca="false">AVERAGE(D31:D35)</f>
         <v>3876.4</v>
       </c>
-      <c r="E36" s="15" t="n">
+      <c r="E36" s="16" t="n">
         <f aca="false">AVERAGE(E31:E35)</f>
         <v>12889</v>
       </c>
@@ -3650,100 +3905,100 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="16" t="n">
+      <c r="B37" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="17" t="n">
         <f aca="false">STDEV(C31:C35)/C36</f>
         <v>0.0584226090507861</v>
       </c>
-      <c r="D37" s="16" t="n">
+      <c r="D37" s="17" t="n">
         <f aca="false">STDEV(D31:D35)/D36</f>
         <v>0.0076583163134792</v>
       </c>
-      <c r="E37" s="16" t="n">
+      <c r="E37" s="17" t="n">
         <f aca="false">STDEV(E31:E35)/E36</f>
         <v>0.0353032102054382</v>
       </c>
-      <c r="H37" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="15" t="n">
+      <c r="H37" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="I37" s="16" t="n">
         <f aca="false">AVERAGE(I32:I36)</f>
         <v>2033.2</v>
       </c>
-      <c r="J37" s="15" t="n">
+      <c r="J37" s="16" t="n">
         <f aca="false">AVERAGE(J32:J36)</f>
         <v>3928.4</v>
       </c>
-      <c r="K37" s="15" t="n">
+      <c r="K37" s="16" t="n">
         <f aca="false">AVERAGE(K32:K36)</f>
         <v>11476.6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="5" t="n">
+      <c r="B38" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6" t="n">
         <f aca="false">1024/C36*1000</f>
         <v>234.367847660899</v>
       </c>
-      <c r="D38" s="5" t="n">
+      <c r="D38" s="6" t="n">
         <f aca="false">1024/D36*1000</f>
         <v>264.162625116087</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="6" t="n">
         <f aca="false">1024/E36*1000</f>
         <v>79.4475909690434</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="16" t="n">
+      <c r="H38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I38" s="17" t="n">
         <f aca="false">STDEV(I32:I36)/I37</f>
         <v>0.0928764691923566</v>
       </c>
-      <c r="J38" s="16" t="n">
+      <c r="J38" s="17" t="n">
         <f aca="false">STDEV(J32:J36)/J37</f>
         <v>0.0124376346841787</v>
       </c>
-      <c r="K38" s="16" t="n">
+      <c r="K38" s="17" t="n">
         <f aca="false">STDEV(K32:K36)/K37</f>
         <v>0.0198772660458199</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H39" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I39" s="5" t="n">
+      <c r="H39" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="I39" s="6" t="n">
         <f aca="false">1024/I37*1000</f>
         <v>503.63958292347</v>
       </c>
-      <c r="J39" s="5" t="n">
+      <c r="J39" s="6" t="n">
         <f aca="false">1024/J37*1000</f>
         <v>260.665919967417</v>
       </c>
-      <c r="K39" s="5" t="n">
+      <c r="K39" s="6" t="n">
         <f aca="false">1024/K37*1000</f>
         <v>89.2250318038443</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="13" t="n">
+      <c r="A40" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="14" t="n">
         <v>4364</v>
       </c>
-      <c r="D40" s="13" t="n">
+      <c r="D40" s="14" t="n">
         <v>3908</v>
       </c>
-      <c r="E40" s="13" t="n">
+      <c r="E40" s="14" t="n">
         <v>11045</v>
       </c>
     </row>
@@ -3792,74 +4047,74 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="15" t="n">
+      <c r="B45" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="16" t="n">
         <f aca="false">AVERAGE(C40:C44)</f>
         <v>4288.6</v>
       </c>
-      <c r="D45" s="15" t="n">
+      <c r="D45" s="16" t="n">
         <f aca="false">AVERAGE(D40:D44)</f>
         <v>3926.8</v>
       </c>
-      <c r="E45" s="15" t="n">
+      <c r="E45" s="16" t="n">
         <f aca="false">AVERAGE(E40:E44)</f>
         <v>11617.2</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="16" t="n">
+      <c r="B46" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="17" t="n">
         <f aca="false">STDEV(C40:C44)/C45</f>
         <v>0.0647740588114395</v>
       </c>
-      <c r="D46" s="16" t="n">
+      <c r="D46" s="17" t="n">
         <f aca="false">STDEV(D40:D44)/D45</f>
         <v>0.0128728191255366</v>
       </c>
-      <c r="E46" s="16" t="n">
+      <c r="E46" s="17" t="n">
         <f aca="false">STDEV(E40:E44)/E45</f>
         <v>0.100625430996328</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C47" s="5" t="n">
+      <c r="B47" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="6" t="n">
         <f aca="false">1024/C45*1000</f>
         <v>238.772559809728</v>
       </c>
-      <c r="D47" s="5" t="n">
+      <c r="D47" s="6" t="n">
         <f aca="false">1024/D45*1000</f>
         <v>260.772129978608</v>
       </c>
-      <c r="E47" s="5" t="n">
+      <c r="E47" s="6" t="n">
         <f aca="false">1024/E45*1000</f>
         <v>88.145164067073</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B49" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="13" t="n">
+      <c r="A49" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="14" t="n">
         <v>2227</v>
       </c>
-      <c r="D49" s="13" t="n">
+      <c r="D49" s="14" t="n">
         <v>3871</v>
       </c>
-      <c r="E49" s="13" t="n">
+      <c r="E49" s="14" t="n">
         <v>11789</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3873,7 +4128,7 @@
         <v>11829</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,74 +4165,74 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="15" t="n">
+      <c r="B54" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="16" t="n">
         <f aca="false">AVERAGE(C49:C53)</f>
         <v>2321</v>
       </c>
-      <c r="D54" s="15" t="n">
+      <c r="D54" s="16" t="n">
         <f aca="false">AVERAGE(D49:D53)</f>
         <v>3897.8</v>
       </c>
-      <c r="E54" s="15" t="n">
+      <c r="E54" s="16" t="n">
         <f aca="false">AVERAGE(E49:E53)</f>
         <v>11441.2</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C55" s="16" t="n">
+      <c r="B55" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" s="17" t="n">
         <f aca="false">STDEV(C49:C53)/C54</f>
         <v>0.0805001470744069</v>
       </c>
-      <c r="D55" s="16" t="n">
+      <c r="D55" s="17" t="n">
         <f aca="false">STDEV(D49:D53)/D54</f>
         <v>0.00481134647960856</v>
       </c>
-      <c r="E55" s="16" t="n">
+      <c r="E55" s="17" t="n">
         <f aca="false">STDEV(E49:E53)/E54</f>
         <v>0.0371895334980082</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="5" t="n">
+      <c r="B56" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="6" t="n">
         <f aca="false">1024/C54*1000</f>
         <v>441.189142610944</v>
       </c>
-      <c r="D56" s="5" t="n">
+      <c r="D56" s="6" t="n">
         <f aca="false">1024/D54*1000</f>
         <v>262.712299245728</v>
       </c>
-      <c r="E56" s="5" t="n">
+      <c r="E56" s="6" t="n">
         <f aca="false">1024/E54*1000</f>
         <v>89.5011012830822</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="13" t="n">
+      <c r="B58" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="14" t="n">
         <v>1984</v>
       </c>
-      <c r="D58" s="13" t="n">
+      <c r="D58" s="14" t="n">
         <v>3909</v>
       </c>
-      <c r="E58" s="13" t="n">
+      <c r="E58" s="14" t="n">
         <v>13444</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3991,7 +4246,7 @@
         <v>12939</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4028,54 +4283,759 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" s="15" t="n">
+      <c r="B63" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="16" t="n">
         <f aca="false">AVERAGE(C58:C62)</f>
         <v>2191.2</v>
       </c>
-      <c r="D63" s="15" t="n">
+      <c r="D63" s="16" t="n">
         <f aca="false">AVERAGE(D58:D62)</f>
         <v>3912</v>
       </c>
-      <c r="E63" s="15" t="n">
+      <c r="E63" s="16" t="n">
         <f aca="false">AVERAGE(E58:E62)</f>
         <v>13408.2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64" s="16" t="n">
+      <c r="B64" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="17" t="n">
         <f aca="false">STDEV(C58:C62)/C63</f>
         <v>0.156401922741034</v>
       </c>
-      <c r="D64" s="16" t="n">
+      <c r="D64" s="17" t="n">
         <f aca="false">STDEV(D58:D62)/D63</f>
         <v>0.00934513620165179</v>
       </c>
-      <c r="E64" s="16" t="n">
+      <c r="E64" s="17" t="n">
         <f aca="false">STDEV(E58:E62)/E63</f>
         <v>0.0224367675488283</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="5" t="n">
+      <c r="B65" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="6" t="n">
         <f aca="false">1024/C63*1000</f>
         <v>467.323840817817</v>
       </c>
-      <c r="D65" s="5" t="n">
+      <c r="D65" s="6" t="n">
         <f aca="false">1024/D63*1000</f>
         <v>261.758691206544</v>
       </c>
-      <c r="E65" s="5" t="n">
+      <c r="E65" s="6" t="n">
         <f aca="false">1024/E63*1000</f>
         <v>76.3711758476156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="6" t="n">
+        <f aca="false">35000*4096/1024/1024</f>
+        <v>136.71875</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <f aca="false">SUM(C24:E24)/1000</f>
+        <v>13.4113333333333</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="14" t="n">
+        <v>2618</v>
+      </c>
+      <c r="D21" s="14" t="n">
+        <v>5275</v>
+      </c>
+      <c r="E21" s="14" t="n">
+        <v>5641</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="0" t="n">
+        <v>2635</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>5122</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>5637</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="0" t="n">
+        <v>2615</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>5120</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="16" t="n">
+        <f aca="false">AVERAGE(C21:C23)</f>
+        <v>2622.66666666667</v>
+      </c>
+      <c r="D24" s="16" t="n">
+        <f aca="false">AVERAGE(D21:D23)</f>
+        <v>5172.33333333333</v>
+      </c>
+      <c r="E24" s="16" t="n">
+        <f aca="false">AVERAGE(E21:E23)</f>
+        <v>5616.33333333333</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="17" t="n">
+        <f aca="false">STDEV(C21:C25)/C24</f>
+        <v>0.00290799725181687</v>
+      </c>
+      <c r="D25" s="17" t="n">
+        <f aca="false">STDEV(D21:D25)/D24</f>
+        <v>0.0121558702809973</v>
+      </c>
+      <c r="E25" s="17" t="n">
+        <f aca="false">STDEV(E21:E25)/E24</f>
+        <v>0.00494929354605956</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6" t="n">
+        <f aca="false">1024/C24*1000</f>
+        <v>390.442297915608</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <f aca="false">1024/D24*1000</f>
+        <v>197.976412966424</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <f aca="false">1024/E24*1000</f>
+        <v>182.325360555523</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="14" t="n">
+        <v>652</v>
+      </c>
+      <c r="D29" s="14" t="n">
+        <v>5122</v>
+      </c>
+      <c r="E29" s="14" t="n">
+        <v>5657</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="0" t="n">
+        <v>637</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>5128</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>5581</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="0" t="n">
+        <v>638</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>5121</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="18" t="n">
+        <f aca="false">AVERAGE(C29:C31)</f>
+        <v>642.333333333333</v>
+      </c>
+      <c r="D32" s="16" t="n">
+        <f aca="false">AVERAGE(D29:D31)</f>
+        <v>5123.66666666667</v>
+      </c>
+      <c r="E32" s="16" t="n">
+        <f aca="false">AVERAGE(E29:E31)</f>
+        <v>5610</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="17" t="n">
+        <f aca="false">STDEV(C29:C33)/C32</f>
+        <v>0.00923219868949517</v>
+      </c>
+      <c r="D33" s="17" t="n">
+        <f aca="false">STDEV(D29:D33)/D32</f>
+        <v>0.00052248970152264</v>
+      </c>
+      <c r="E33" s="17" t="n">
+        <f aca="false">STDEV(E29:E33)/E32</f>
+        <v>0.00517701808608114</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="6" t="n">
+        <f aca="false">1024/C32*1000</f>
+        <v>1594.18785677218</v>
+      </c>
+      <c r="D34" s="6" t="n">
+        <f aca="false">1024/D32*1000</f>
+        <v>199.8568733329</v>
+      </c>
+      <c r="E34" s="6" t="n">
+        <f aca="false">1024/E32*1000</f>
+        <v>182.5311942959</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <f aca="false">SUM(C41:E41)/1000</f>
+        <v>12.719</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="14" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D38" s="14" t="n">
+        <v>5199</v>
+      </c>
+      <c r="E38" s="14" t="n">
+        <v>4890</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="0" t="n">
+        <v>2603</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>5243</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>4847</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="0" t="n">
+        <v>2604</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>5242</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>4917</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="16" t="n">
+        <f aca="false">AVERAGE(C38:C40)</f>
+        <v>2606.33333333333</v>
+      </c>
+      <c r="D41" s="16" t="n">
+        <f aca="false">AVERAGE(D38:D40)</f>
+        <v>5228</v>
+      </c>
+      <c r="E41" s="16" t="n">
+        <f aca="false">AVERAGE(E38:E40)</f>
+        <v>4884.66666666667</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="17" t="n">
+        <f aca="false">STDEV(C38:C42)/C41</f>
+        <v>0.00133830729866072</v>
+      </c>
+      <c r="D42" s="17" t="n">
+        <f aca="false">STDEV(D38:D42)/D41</f>
+        <v>0.00339753627932892</v>
+      </c>
+      <c r="E42" s="17" t="n">
+        <f aca="false">STDEV(E38:E42)/E41</f>
+        <v>0.00511054450762965</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="6" t="n">
+        <f aca="false">1024/C41*1000</f>
+        <v>392.889116255276</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <f aca="false">1024/D41*1000</f>
+        <v>195.868400918133</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <f aca="false">1024/E41*1000</f>
+        <v>209.635594376962</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="14" t="n">
+        <v>834</v>
+      </c>
+      <c r="D46" s="14" t="n">
+        <v>5205</v>
+      </c>
+      <c r="E46" s="14" t="n">
+        <v>4903</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="0" t="n">
+        <v>790</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>5200</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>4951</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="0" t="n">
+        <v>793</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>5228</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>4975</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="18" t="n">
+        <f aca="false">AVERAGE(C46:C48)</f>
+        <v>805.666666666667</v>
+      </c>
+      <c r="D49" s="16" t="n">
+        <f aca="false">AVERAGE(D46:D48)</f>
+        <v>5211</v>
+      </c>
+      <c r="E49" s="16" t="n">
+        <f aca="false">AVERAGE(E46:E48)</f>
+        <v>4943</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="17" t="n">
+        <f aca="false">STDEV(C46:C50)/C49</f>
+        <v>0.021575848361659</v>
+      </c>
+      <c r="D50" s="17" t="n">
+        <f aca="false">STDEV(D46:D50)/D49</f>
+        <v>0.00202635886412808</v>
+      </c>
+      <c r="E50" s="17" t="n">
+        <f aca="false">STDEV(E46:E50)/E49</f>
+        <v>0.00524437847332216</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="6" t="n">
+        <f aca="false">1024/C49*1000</f>
+        <v>1270.99710384775</v>
+      </c>
+      <c r="D51" s="6" t="n">
+        <f aca="false">1024/D49*1000</f>
+        <v>196.507388217233</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <f aca="false">1024/E49*1000</f>
+        <v>207.161642727089</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <f aca="false">SUM(C58:E58)/1000</f>
+        <v>12.8946666666667</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="14" t="n">
+        <v>2362</v>
+      </c>
+      <c r="D55" s="14" t="n">
+        <v>5110</v>
+      </c>
+      <c r="E55" s="14" t="n">
+        <v>5366</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="0" t="n">
+        <v>2306</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>5153</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="0" t="n">
+        <v>2321</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>5155</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>5556</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58" s="16" t="n">
+        <f aca="false">AVERAGE(C55:C57)</f>
+        <v>2329.66666666667</v>
+      </c>
+      <c r="D58" s="16" t="n">
+        <f aca="false">AVERAGE(D55:D57)</f>
+        <v>5139.33333333333</v>
+      </c>
+      <c r="E58" s="16" t="n">
+        <f aca="false">AVERAGE(E55:E57)</f>
+        <v>5425.66666666667</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="17" t="n">
+        <f aca="false">STDEV(C55:C59)/C58</f>
+        <v>0.00879866964325597</v>
+      </c>
+      <c r="D59" s="17" t="n">
+        <f aca="false">STDEV(D55:D59)/D58</f>
+        <v>0.00349789277759601</v>
+      </c>
+      <c r="E59" s="17" t="n">
+        <f aca="false">STDEV(E55:E59)/E58</f>
+        <v>0.0147276349241149</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="6" t="n">
+        <f aca="false">1024/C58*1000</f>
+        <v>439.54786092431</v>
+      </c>
+      <c r="D60" s="6" t="n">
+        <f aca="false">1024/D58*1000</f>
+        <v>199.247632637177</v>
+      </c>
+      <c r="E60" s="6" t="n">
+        <f aca="false">1024/E58*1000</f>
+        <v>188.73256742643</v>
       </c>
     </row>
   </sheetData>
